--- a/plot1.xlsx
+++ b/plot1.xlsx
@@ -117,7 +117,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -772,6 +771,346 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24443744531933509"/>
+          <c:y val="0.24537037037037038"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>117.085104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.313755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.220914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.645244000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.734413</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6142570000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5431229999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-430B-4B87-B9F9-9598333C34DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1682438351"/>
+        <c:axId val="1682435439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1682438351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682435439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1682435439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682438351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -852,6 +1191,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1369,6 +1745,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1923,16 +2815,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>384175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1946,6 +2838,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2796,6 +3718,9 @@
       <c r="B3">
         <v>200000000</v>
       </c>
+      <c r="C3">
+        <v>117.085104</v>
+      </c>
       <c r="D3">
         <v>24.949363000000002</v>
       </c>
@@ -2807,6 +3732,9 @@
       <c r="B4">
         <v>200000000</v>
       </c>
+      <c r="C4">
+        <v>65.313755</v>
+      </c>
       <c r="D4">
         <v>15.447614</v>
       </c>
@@ -2818,6 +3746,9 @@
       <c r="B5">
         <v>200000000</v>
       </c>
+      <c r="C5">
+        <v>33.220914</v>
+      </c>
       <c r="D5">
         <v>7.6426189999999998</v>
       </c>
@@ -2829,6 +3760,9 @@
       <c r="B6">
         <v>200000000</v>
       </c>
+      <c r="C6">
+        <v>21.645244000000002</v>
+      </c>
       <c r="D6">
         <v>3.2138779999999998</v>
       </c>
@@ -2840,6 +3774,9 @@
       <c r="B7">
         <v>200000000</v>
       </c>
+      <c r="C7">
+        <v>10.734413</v>
+      </c>
       <c r="D7">
         <v>1.6397010000000001</v>
       </c>
@@ -2851,6 +3788,9 @@
       <c r="B8">
         <v>200000000</v>
       </c>
+      <c r="C8">
+        <v>5.6142570000000003</v>
+      </c>
       <c r="D8">
         <v>0.90563899999999997</v>
       </c>
@@ -2861,6 +3801,9 @@
       </c>
       <c r="B9">
         <v>200000000</v>
+      </c>
+      <c r="C9">
+        <v>7.5431229999999996</v>
       </c>
       <c r="D9">
         <v>1.5925370000000001</v>

--- a/plot1.xlsx
+++ b/plot1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="6310" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="6310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>Nodes</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>Data/node</t>
+  </si>
+  <si>
+    <t>Execution time for total data of 1Billion</t>
   </si>
 </sst>
 </file>
@@ -117,6 +121,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution time for 200M numbers/Node</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -168,7 +198,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -197,22 +229,22 @@
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="6">
                   <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
@@ -227,23 +259,23 @@
                 <c:pt idx="0">
                   <c:v>48.412604999999999</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.347948000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.348270999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.622565000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.953967000000006</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.622565000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>76.736930000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>50.347948000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>54.348270999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>69.953967000000006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>85.990516</c:v>
+                <c:pt idx="6">
+                  <c:v>95.990516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,7 +283,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A8E-4CD3-A445-4E5C4561C146}"/>
+              <c16:uniqueId val="{00000000-1178-4FFB-AD30-CDD0D6606922}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -263,11 +295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1837749567"/>
-        <c:axId val="1837750399"/>
+        <c:axId val="2002101727"/>
+        <c:axId val="2002116287"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1837749567"/>
+        <c:axId val="2002101727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -287,6 +319,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -324,12 +417,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1837750399"/>
+        <c:crossAx val="2002116287"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1837750399"/>
+        <c:axId val="2002116287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,6 +442,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -386,7 +535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1837749567"/>
+        <c:crossAx val="2002101727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -450,7 +599,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -790,8 +938,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24443744531933509"/>
-          <c:y val="0.24537037037037038"/>
+          <c:x val="0.21110411198600174"/>
+          <c:y val="4.1666666666666664E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -837,6 +985,9 @@
               <c:f>Sheet2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution time for total data of 1Billion</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -864,6 +1015,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$A$2:$A$9</c:f>
@@ -932,8 +1141,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -963,6 +1173,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1025,6 +1290,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2781,19 +3101,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>819150</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
+      <xdr:colOff>336550</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3139,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3176,70 +3496,70 @@
         <v>48.412604999999999</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>200000000</v>
+      </c>
+      <c r="C3">
+        <v>50.347948000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>200000000</v>
+      </c>
+      <c r="C4">
+        <v>54.348270999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>200000000</v>
+      </c>
+      <c r="C5">
+        <v>63.622565000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>200000000</v>
+      </c>
+      <c r="C6">
+        <v>69.953967000000006</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>200000000</v>
       </c>
       <c r="C7">
-        <v>63.622565000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>64</v>
-      </c>
-      <c r="B12">
+        <v>76.736930000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>128</v>
+      </c>
+      <c r="B8">
         <v>200000000</v>
       </c>
-      <c r="C12">
-        <v>76.736930000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>200000000</v>
-      </c>
-      <c r="C16">
-        <v>50.347948000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>200000000</v>
-      </c>
-      <c r="C22">
-        <v>54.348270999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>200000000</v>
-      </c>
-      <c r="C27">
-        <v>69.953967000000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>128</v>
-      </c>
-      <c r="B29">
-        <v>200000000</v>
-      </c>
-      <c r="C29">
-        <v>85.990516</v>
+      <c r="C8">
+        <v>95.990516</v>
       </c>
     </row>
   </sheetData>
@@ -3363,7 +3683,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3470,7 +3790,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3689,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3707,6 +4027,9 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
@@ -3820,7 +4143,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
